--- a/8.- Derivatives Risk.xlsx
+++ b/8.- Derivatives Risk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D7BB6B-4102-D848-ACC5-E55604BD0A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D9276-BB51-B64D-9256-840F52D74AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{442D74AF-57CA-1E4A-8584-05EF9E2B8360}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{442D74AF-57CA-1E4A-8584-05EF9E2B8360}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej. 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>3m</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>MDD del subyacente</t>
+  </si>
+  <si>
+    <t>Delta call</t>
+  </si>
+  <si>
+    <t>Probabilidad de que la opción sea ejercida</t>
+  </si>
+  <si>
+    <t>Delta put</t>
+  </si>
+  <si>
+    <t>Call: S&gt;K se ejerce</t>
+  </si>
+  <si>
+    <t>Put: S&lt;K se ejerce</t>
+  </si>
+  <si>
+    <t>Considerando la posición del día anterior</t>
+  </si>
+  <si>
+    <t>Debería comprar</t>
   </si>
 </sst>
 </file>
@@ -393,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -456,13 +477,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -483,6 +498,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -800,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8CCA76-E2D5-094B-ABAA-BDECE552D03D}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,21 +859,21 @@
     </row>
     <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="F7" s="39" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="F7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="39" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="J7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
@@ -904,7 +920,7 @@
       <c r="J9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="L9" s="6">
@@ -933,7 +949,7 @@
       <c r="J10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="40">
         <v>0.34260000000000002</v>
       </c>
       <c r="L10" s="28">
@@ -959,11 +975,11 @@
       <c r="H11" s="28">
         <v>0.19400000000000001</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
@@ -999,7 +1015,7 @@
       <c r="J13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="40">
         <v>0.12720000000000001</v>
       </c>
       <c r="L13" s="6">
@@ -1031,7 +1047,7 @@
       <c r="K14" s="29">
         <v>0.24540000000000001</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="34">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
@@ -1075,11 +1091,11 @@
       <c r="H16" s="28">
         <v>0.20699999999999999</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1114,11 +1130,11 @@
       <c r="J18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="40">
         <f>K9*C10</f>
         <v>1.8164</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="41">
         <f>L9*D10</f>
         <v>4.9299999999999997E-2</v>
       </c>
@@ -1143,22 +1159,22 @@
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="40">
         <f>K10*C11</f>
         <v>9.9354000000000013</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="42">
         <f>L10*D11</f>
         <v>4.7654999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
       <c r="N20" s="10" t="s">
         <v>31</v>
       </c>
@@ -1185,11 +1201,11 @@
       <c r="J22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="40">
         <f>K13*C15</f>
         <v>4.1976000000000004</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="41">
         <f>L13*D15</f>
         <v>0</v>
       </c>
@@ -1202,7 +1218,7 @@
         <f>K14*C16</f>
         <v>9.3252000000000006</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="42">
         <f>L14*D16</f>
         <v>1.0812000000000002</v>
       </c>
@@ -1216,6 +1232,9 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J16:L16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{0ACBDB39-54B7-9743-B022-9873A204CC1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1223,9 +1242,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38C568B-C6B1-D94C-BA57-94AFEC979D4E}">
-  <dimension ref="B1:L33"/>
+  <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1233,48 +1254,50 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="F7" s="39" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="F7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="39" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="J7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1319,10 +1342,14 @@
       <c r="J9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="40">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="L9" s="41">
+        <v>0.41689999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
@@ -1344,10 +1371,21 @@
       <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="40">
+        <v>0.56940000000000002</v>
+      </c>
+      <c r="L10" s="42">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10">
+        <f>SUMPRODUCT(C10:D11,K9:L10)</f>
+        <v>48.791699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1366,13 +1404,20 @@
       <c r="H11" s="28">
         <v>0.28899999999999998</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <f>SUMPRODUCT(C15:D16,K13:L14)</f>
+        <v>21.489899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30" t="s">
@@ -1393,7 +1438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
@@ -1407,10 +1452,24 @@
       <c r="J13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="40">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="L13" s="41">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="10">
+        <f>P10-P11</f>
+        <v>27.3018</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
@@ -1432,10 +1491,14 @@
       <c r="J14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="43">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0.39429999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1518,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1474,8 +1537,14 @@
       <c r="H16" s="28">
         <v>0.378</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="29"/>
       <c r="D17" s="31" t="s">
@@ -1486,44 +1555,56 @@
       <c r="H17" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="F23" s="39" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="F23" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="J23" s="39" t="s">
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="J23" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
         <v>16</v>
       </c>
@@ -1546,7 +1627,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1568,10 +1649,14 @@
       <c r="J25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="40">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="L25" s="41">
+        <v>0.45219999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>1</v>
       </c>
@@ -1593,10 +1678,21 @@
       <c r="J26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
-    </row>
-    <row r="27" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="40">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="L26" s="42">
+        <v>0.56710000000000005</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26">
+        <f>SUMPRODUCT(C26:D27,K25:L26)</f>
+        <v>51.072000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
@@ -1615,13 +1711,20 @@
       <c r="H27" s="28">
         <v>0.28599999999999998</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-    </row>
-    <row r="28" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
+      <c r="O27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27">
+        <f>SUMPRODUCT(C31:D32,K29:L30)</f>
+        <v>20.7865</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="29"/>
       <c r="D28" s="30" t="s">
@@ -1635,14 +1738,14 @@
       <c r="J28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="35">
         <v>20.2</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
         <v>17</v>
       </c>
@@ -1656,35 +1759,53 @@
       <c r="J29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="40">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="L29" s="41">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="10">
+        <f>P26-P27</f>
+        <v>30.285500000000003</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="35">
         <v>20.2</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="35">
         <v>20.2</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="36">
         <v>20</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="43">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="L30" s="42">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1703,8 +1824,11 @@
       <c r="H31" s="28">
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>15</v>
       </c>
@@ -1722,6 +1846,16 @@
       </c>
       <c r="H32" s="28">
         <v>0.38</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="10">
+        <f>P29-P13</f>
+        <v>2.9837000000000025</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1748,5 +1882,6 @@
     <mergeCell ref="J23:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>